--- a/BOl FREE ZONE.xlsx
+++ b/BOl FREE ZONE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sent" sheetId="1" r:id="rId1"/>
@@ -1351,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:L4"/>
+    <sheetView rightToLeft="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -2713,8 +2713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T108"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A37" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50:J51"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C10" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
